--- a/output/fit_clients/fit_round_311.xlsx
+++ b/output/fit_clients/fit_round_311.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2459713960.777521</v>
+        <v>1696019176.378002</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07293807314841466</v>
+        <v>0.09234979594027097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0371599336904078</v>
+        <v>0.02912685139936411</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1229857037.885874</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1789268641.637365</v>
+        <v>2243698477.286204</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1122410312451544</v>
+        <v>0.1480378324485655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03148938305035912</v>
+        <v>0.0402525539814089</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>894634328.2494527</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4738281220.632517</v>
+        <v>4055195018.223122</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1497313974631088</v>
+        <v>0.1035841964920282</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03488420828992283</v>
+        <v>0.02375994097420641</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>112</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2369140676.795896</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3916990498.545188</v>
+        <v>3299366207.289671</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1095859352082672</v>
+        <v>0.08779543814743332</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0326679635531831</v>
+        <v>0.04889420141982047</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1958495258.492301</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2290217541.142739</v>
+        <v>1928599953.016526</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09623467365239513</v>
+        <v>0.09675151907428596</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05089855858340971</v>
+        <v>0.05204950959241577</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1145108768.759677</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1973862115.193837</v>
+        <v>3053823843.143486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07664556204773926</v>
+        <v>0.06514105640018159</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04003756808409956</v>
+        <v>0.03786367430103248</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>98</v>
-      </c>
-      <c r="J7" t="n">
-        <v>986931121.2547858</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2668713729.583022</v>
+        <v>3583222121.907131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1497280667253363</v>
+        <v>0.1591984096882591</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02783730928884173</v>
+        <v>0.03303098010205845</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>99</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1334356888.440141</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1887504914.458599</v>
+        <v>2283549149.855644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1301202707127403</v>
+        <v>0.1639381907271497</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02928926220991157</v>
+        <v>0.03070796914181156</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>943752499.4414531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4466650446.214469</v>
+        <v>5486593967.790071</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2066631228436085</v>
+        <v>0.2081366450718503</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03455362725210555</v>
+        <v>0.04194998063764201</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>131</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2233325281.113673</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3396234437.315684</v>
+        <v>3285848685.13197</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1246202833563369</v>
+        <v>0.1363089194881313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03465814334732191</v>
+        <v>0.03446401991746697</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>128</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1698117189.239397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2992579358.155567</v>
+        <v>2932415103.213258</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1959651210031363</v>
+        <v>0.1496490441203132</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03509788467091837</v>
+        <v>0.04697463021073863</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>106</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1496289696.427802</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3906653365.830338</v>
+        <v>4943836608.422732</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07620909471365568</v>
+        <v>0.07592634863924462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02806814083495861</v>
+        <v>0.02698381143176084</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>104</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1953326742.587334</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2660823674.354255</v>
+        <v>2462786213.691256</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1201122881429008</v>
+        <v>0.1449468315284468</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03320199558880328</v>
+        <v>0.03594890901630388</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1330411896.175803</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1199501540.072833</v>
+        <v>1663067944.842374</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06713160209540728</v>
+        <v>0.1053757032543675</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0404251784893556</v>
+        <v>0.04748559064033502</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>599750787.4102534</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1829748566.892991</v>
+        <v>2552098630.537957</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1084812445779313</v>
+        <v>0.07692408967042005</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04268074448916506</v>
+        <v>0.03199871396107656</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>60</v>
-      </c>
-      <c r="J16" t="n">
-        <v>914874374.1416626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3750688974.117101</v>
+        <v>4128637051.571692</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1726716475523822</v>
+        <v>0.1465776015558691</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03991251892454819</v>
+        <v>0.03648152130959671</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>91</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1875344533.975643</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4012852046.621549</v>
+        <v>2946184341.227653</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1769206268190817</v>
+        <v>0.1760586816593583</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03054127470115416</v>
+        <v>0.02333577569495579</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>101</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2006425980.239954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1078420633.580353</v>
+        <v>905624798.7884514</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1299862255933322</v>
+        <v>0.189787411378</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02605913376276275</v>
+        <v>0.01837136217577114</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>539210365.1496969</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1943150604.993328</v>
+        <v>2691581512.842367</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1119879521461543</v>
+        <v>0.1461800783540878</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02470054233118269</v>
+        <v>0.02985253096244031</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>971575334.9118875</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1932887951.258815</v>
+        <v>2066910122.606979</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0863662703718986</v>
+        <v>0.08377295283944385</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04072911305775054</v>
+        <v>0.03101674714547926</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>966444018.0025336</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2459324334.342166</v>
+        <v>2695385235.003026</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1091587465833026</v>
+        <v>0.09650647248970712</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05274657392245059</v>
+        <v>0.05202349659427442</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1229662261.084281</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1451657509.812292</v>
+        <v>1398795504.45135</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1648999621965596</v>
+        <v>0.13158381741095</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04041147814084186</v>
+        <v>0.03614606293956764</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>725828749.0103533</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3861478639.245799</v>
+        <v>3098366553.856406</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1006094138392653</v>
+        <v>0.1270260113321746</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03542170328831173</v>
+        <v>0.0327534489935572</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>91</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1930739296.918762</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1361963690.902545</v>
+        <v>1001683849.468783</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1222266425253892</v>
+        <v>0.1016073646186551</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02107787185015439</v>
+        <v>0.02897412185752</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>680981826.161792</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>946509778.5048107</v>
+        <v>1164488467.172061</v>
       </c>
       <c r="F26" t="n">
-        <v>0.115531787871805</v>
+        <v>0.08947449717862725</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03761657501201836</v>
+        <v>0.03374326006260032</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>473254848.2988631</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3967720777.145759</v>
+        <v>3842698179.682853</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1353062259193757</v>
+        <v>0.1051763142923649</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01963616430870262</v>
+        <v>0.01982785228820824</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>76</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1983860400.317834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2558022816.65459</v>
+        <v>3772480688.305269</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1263311858839793</v>
+        <v>0.1401619245433239</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04665323700322882</v>
+        <v>0.031651650171328</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>99</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1279011381.171795</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5694122357.198771</v>
+        <v>5284632728.157559</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1106695825396702</v>
+        <v>0.1481460694067152</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03096805051813304</v>
+        <v>0.03280156748409876</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>137</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2847061078.113193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1499129071.680817</v>
+        <v>2160287049.204883</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1227962349363131</v>
+        <v>0.1197203264776539</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03383952860938694</v>
+        <v>0.03511438475496227</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>749564516.2923454</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1080020006.058625</v>
+        <v>921792855.6208538</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07045727217810445</v>
+        <v>0.08221776523012066</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04171936346614383</v>
+        <v>0.03825532002094353</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>540009982.741218</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1886072588.88105</v>
+        <v>1845107679.885104</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09430786054869518</v>
+        <v>0.0949588237721444</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03285691089995577</v>
+        <v>0.03195287223069031</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>943036442.7517636</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1941494304.201934</v>
+        <v>2041136037.798455</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2067811206678267</v>
+        <v>0.1995105787042609</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04563340838634898</v>
+        <v>0.05212631642473612</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>92</v>
-      </c>
-      <c r="J33" t="n">
-        <v>970747237.8996699</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1576572971.237767</v>
+        <v>1277342769.684051</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09245189704754733</v>
+        <v>0.08703573509077106</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01824446403735349</v>
+        <v>0.02172119750701347</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>788286428.9271641</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>949006084.4360726</v>
+        <v>1190752412.019809</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1040391808700289</v>
+        <v>0.1173963497876246</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04107458878029412</v>
+        <v>0.02738449479878322</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>474503071.9696714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2939454676.622269</v>
+        <v>2808356117.511896</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1209017518881381</v>
+        <v>0.1765565425104095</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0266861502745201</v>
+        <v>0.02188906074950622</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>77</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1469727325.081717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1850694643.270904</v>
+        <v>2423317176.322678</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06840065477292825</v>
+        <v>0.1037433685977125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03456222715730589</v>
+        <v>0.03096834185648397</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>81</v>
-      </c>
-      <c r="J37" t="n">
-        <v>925347328.3903415</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1644587187.996618</v>
+        <v>2169026108.587384</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07844630604549267</v>
+        <v>0.09282607878731632</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02660563124595879</v>
+        <v>0.02777065625268714</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>822293622.8340057</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1500658991.235239</v>
+        <v>1400714873.872538</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1718028511135162</v>
+        <v>0.1220222657664297</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02794995366929381</v>
+        <v>0.02819933041415921</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>750329565.9523112</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1767376368.531135</v>
+        <v>1330720222.930962</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1503480326637331</v>
+        <v>0.1434579372529022</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04896667594952563</v>
+        <v>0.06006363603217173</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>883688083.5346767</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2868766452.296957</v>
+        <v>1888161723.535302</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1277485004047402</v>
+        <v>0.1067229191588617</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0370527036539547</v>
+        <v>0.03858269733296407</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>77</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1434383215.296299</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3442321483.557668</v>
+        <v>3810190159.307796</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1113088530311834</v>
+        <v>0.1180140258224613</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04203192461252524</v>
+        <v>0.03091063156561509</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1721160732.671857</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1926336451.883584</v>
+        <v>2494708111.479671</v>
       </c>
       <c r="F43" t="n">
-        <v>0.191798573745863</v>
+        <v>0.1646785201174022</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02582663595063574</v>
+        <v>0.01839995586223077</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>112</v>
-      </c>
-      <c r="J43" t="n">
-        <v>963168332.2992263</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1985185580.352057</v>
+        <v>1458653816.247545</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07674677944991218</v>
+        <v>0.09904484204127306</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0227137518670315</v>
+        <v>0.03093701684617492</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>992592893.554621</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2082970485.467131</v>
+        <v>2202941107.878849</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1517705889640803</v>
+        <v>0.1472249302524414</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03478979463531682</v>
+        <v>0.04139838106282123</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1041485241.943041</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3820834290.655153</v>
+        <v>3743265478.86542</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1463173212912764</v>
+        <v>0.1746510424107295</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05612202583673735</v>
+        <v>0.06096330536604551</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>110</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1910417104.618047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3777844098.947204</v>
+        <v>4291008037.786636</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1865951916082683</v>
+        <v>0.146037901785647</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04143363920072659</v>
+        <v>0.0577274624780621</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>83</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1888922036.032062</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3149020822.855427</v>
+        <v>4007042217.614082</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1064863279075665</v>
+        <v>0.07271839557026059</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03589952760259329</v>
+        <v>0.03002173024529195</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>104</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1574510495.249667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1550326634.348892</v>
+        <v>1408959557.346609</v>
       </c>
       <c r="F49" t="n">
-        <v>0.124502989898322</v>
+        <v>0.1930907260771335</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03464601125094927</v>
+        <v>0.03760058809768353</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>775163341.3840394</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2556085999.478152</v>
+        <v>3355366113.411995</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1383124018280852</v>
+        <v>0.1362880586379242</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03693388355447339</v>
+        <v>0.03785771953294349</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>106</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1278043091.148318</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1393599469.032762</v>
+        <v>1044584199.312184</v>
       </c>
       <c r="F51" t="n">
-        <v>0.127705338122694</v>
+        <v>0.1904080207418548</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03918864468046716</v>
+        <v>0.03456334777130591</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>696799754.6965051</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3523225269.303895</v>
+        <v>4612231566.664553</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1212423845394698</v>
+        <v>0.1381467469489474</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04833966301587719</v>
+        <v>0.03845383056761823</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>128</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1761612719.192881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2718726293.733699</v>
+        <v>2487967706.576174</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1745562355350879</v>
+        <v>0.1326511025127423</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02984498842373477</v>
+        <v>0.02726593132539288</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>89</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1359363198.694936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3371346124.621066</v>
+        <v>3420751496.020006</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1675212825781652</v>
+        <v>0.1092572756372493</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05255512768265384</v>
+        <v>0.04082456741576121</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1685673077.016299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3887461190.73786</v>
+        <v>4930181199.685182</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1365127855979608</v>
+        <v>0.1772899511523339</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02746937965678741</v>
+        <v>0.02279248127759811</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1943730565.316407</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1441934284.233153</v>
+        <v>1659365206.651695</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1121858278164571</v>
+        <v>0.1305328011152667</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03679659800720449</v>
+        <v>0.05645745808356781</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>720967192.9920176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4339039816.665216</v>
+        <v>2971999976.26588</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1583299250389811</v>
+        <v>0.1618473701680309</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02298660863482143</v>
+        <v>0.02450182922170451</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>99</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2169520025.169425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1321330316.184722</v>
+        <v>1311911603.159658</v>
       </c>
       <c r="F58" t="n">
-        <v>0.15672492997321</v>
+        <v>0.1947012357799695</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03155353419140653</v>
+        <v>0.02597283024320346</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>660665205.5259172</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5161938413.274985</v>
+        <v>4707666128.132052</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0965726050641864</v>
+        <v>0.1139087756105747</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03388358230059011</v>
+        <v>0.03796155086650163</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2580969126.548905</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2841784899.054644</v>
+        <v>3443034190.864105</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1585712508376657</v>
+        <v>0.202467549635521</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02689599116903995</v>
+        <v>0.03018248606578918</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>97</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1420892503.284699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2964563253.664587</v>
+        <v>2214550516.352504</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1671974923830612</v>
+        <v>0.1302559577191452</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02612072741569385</v>
+        <v>0.02285264729462275</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>106</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1482281610.637468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1763719361.68576</v>
+        <v>1369187929.848855</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1803765905499676</v>
+        <v>0.133907724425466</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0483705229327592</v>
+        <v>0.04430497829095525</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>881859703.4797213</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4562348302.167515</v>
+        <v>3545700803.331312</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0678948943235014</v>
+        <v>0.0846230081757678</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03641875746816483</v>
+        <v>0.03190317815451803</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>89</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2281174188.369416</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3708240407.292233</v>
+        <v>3663788200.562013</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1502568695472442</v>
+        <v>0.1350214821221139</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03134866005625964</v>
+        <v>0.0355609791502489</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>97</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1854120218.991746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4886274972.420439</v>
+        <v>4865100420.732944</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1201552732286779</v>
+        <v>0.1190804685206119</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02312977295621103</v>
+        <v>0.02571739164119726</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>111</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2443137451.896812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5517361769.642765</v>
+        <v>5582195656.91494</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1326479909526014</v>
+        <v>0.1382434622955169</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04024287301140737</v>
+        <v>0.04336817701282929</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>90</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2758680939.704748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2950556420.204353</v>
+        <v>2863829498.825988</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0689363380648489</v>
+        <v>0.06222121792938047</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03194379966340023</v>
+        <v>0.03176878136277608</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>100</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1475278232.559606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4055480963.485451</v>
+        <v>4980183023.268757</v>
       </c>
       <c r="F68" t="n">
-        <v>0.101851987144283</v>
+        <v>0.10251793369264</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03496533454560857</v>
+        <v>0.04321117131754078</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>101</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2027740480.907419</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2213243191.967608</v>
+        <v>1548268523.483542</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1382667940434793</v>
+        <v>0.1424429202713666</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04287917032037863</v>
+        <v>0.04631837179627835</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1106621628.514219</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2610035572.248611</v>
+        <v>3250653902.252615</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09188660419432652</v>
+        <v>0.09431298458072786</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03774039927427381</v>
+        <v>0.03820285829143619</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>88</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1305017737.749269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5617984578.13138</v>
+        <v>4744189890.139658</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1581918371399774</v>
+        <v>0.1811503918193874</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03111910217719586</v>
+        <v>0.0250455582046148</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>114</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2808992440.943941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1743841301.706752</v>
+        <v>1488352606.321486</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08464654152668966</v>
+        <v>0.06881281561595885</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04200443432158645</v>
+        <v>0.03333056447307446</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>871920638.4866613</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3385369864.374178</v>
+        <v>3141770801.14562</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08473781321266785</v>
+        <v>0.06918856206088651</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05261919441560865</v>
+        <v>0.0501704690606742</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>118</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1692684892.864623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3924172170.781095</v>
+        <v>2486072431.686124</v>
       </c>
       <c r="F74" t="n">
-        <v>0.165869195074713</v>
+        <v>0.1771009082176718</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03523031045626999</v>
+        <v>0.02834267885094719</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>106</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1962086070.918227</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2323125319.368266</v>
+        <v>2025469505.079574</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1397383788242495</v>
+        <v>0.1540256536485276</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03190735148646366</v>
+        <v>0.03042363967212282</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1161562593.580264</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4848437125.036923</v>
+        <v>5064555456.012768</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08635769549013561</v>
+        <v>0.1230198789330681</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02858081507235292</v>
+        <v>0.02558581425230023</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2424218582.783909</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2133993192.324784</v>
+        <v>2051442095.774808</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1746954329291063</v>
+        <v>0.1469419359804172</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0243416216523398</v>
+        <v>0.02846739545228331</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1066996677.440386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4746851809.571153</v>
+        <v>2994906521.136371</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08759157552245959</v>
+        <v>0.1342130980282825</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05508166792646395</v>
+        <v>0.0519112571271282</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>108</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2373425817.050926</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1369843376.795035</v>
+        <v>1270576280.777959</v>
       </c>
       <c r="F79" t="n">
-        <v>0.163128404244899</v>
+        <v>0.1333597469198844</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03821647200518012</v>
+        <v>0.02846781237495951</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>684921699.8534524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3692161248.952379</v>
+        <v>5504155730.453261</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07195544883232706</v>
+        <v>0.09865762565863352</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03299750294789335</v>
+        <v>0.02598560397624227</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>65</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1846080608.631607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4272916296.160104</v>
+        <v>4842769849.572392</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1341209876237028</v>
+        <v>0.1203968389272404</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02882505497385173</v>
+        <v>0.03160435707112434</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2136458121.439527</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3607064064.211625</v>
+        <v>3580436497.281289</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1658550431158313</v>
+        <v>0.1466204082953456</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02065422201273555</v>
+        <v>0.01878791012462295</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>108</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1803532093.7692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2313279177.397615</v>
+        <v>2303149315.847316</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1352362547884684</v>
+        <v>0.1498595307918489</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0329420621296017</v>
+        <v>0.02762846876373435</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1156639613.025574</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1926203657.710979</v>
+        <v>2290153609.272204</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07376033750493585</v>
+        <v>0.1118866971896368</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03395629293667373</v>
+        <v>0.04302076279558174</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>963101844.6608225</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3319308717.70837</v>
+        <v>2489263923.985696</v>
       </c>
       <c r="F85" t="n">
-        <v>0.133891039417881</v>
+        <v>0.147341852642343</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04636478783046244</v>
+        <v>0.04701271061203906</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>117</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1659654454.250757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2270589509.583762</v>
+        <v>2068568654.226885</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1345138771546121</v>
+        <v>0.1611576259498133</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02481283006076806</v>
+        <v>0.01763710805991863</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>42</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1135294820.033559</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1448986957.165407</v>
+        <v>1107441987.57023</v>
       </c>
       <c r="F87" t="n">
-        <v>0.120856240345725</v>
+        <v>0.1260660000138674</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03888533901167905</v>
+        <v>0.03813640040178064</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>724493597.9864808</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3169350112.353127</v>
+        <v>3284713061.398455</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1447854996141001</v>
+        <v>0.1569630018051524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02719774803775394</v>
+        <v>0.02687448137990714</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>124</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1584675103.372105</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2623497410.387026</v>
+        <v>3427539641.91643</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1281463175002875</v>
+        <v>0.1391439564159847</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04049085610119402</v>
+        <v>0.03334480023639384</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>105</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1311748770.904464</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1508196665.23147</v>
+        <v>1662457405.418885</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1025693443116469</v>
+        <v>0.09480277633223486</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03918822986299712</v>
+        <v>0.03526706664365485</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>754098312.8823193</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1752864997.339587</v>
+        <v>1503169158.694818</v>
       </c>
       <c r="F91" t="n">
-        <v>0.172668202162599</v>
+        <v>0.1562490041477109</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05256816953039197</v>
+        <v>0.056073063189955</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>876432503.8833463</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1833802334.413215</v>
+        <v>2132375138.027377</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07705850589681518</v>
+        <v>0.1036619901965028</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03521083304882063</v>
+        <v>0.03821213665724135</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>81</v>
-      </c>
-      <c r="J92" t="n">
-        <v>916901100.8146231</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3767110381.159036</v>
+        <v>4144675307.962321</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09699862369585639</v>
+        <v>0.1413642965609802</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03427232104789431</v>
+        <v>0.04744206651199347</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1883555206.259017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1963946343.311581</v>
+        <v>1676281652.083545</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1078384725983504</v>
+        <v>0.1093585105489842</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03741018494825728</v>
+        <v>0.03290437314877772</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>981973165.3255315</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3049602140.077587</v>
+        <v>3115135203.972255</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09532147457483775</v>
+        <v>0.1257418027616502</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04799719701508958</v>
+        <v>0.04800488380368004</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>75</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1524801066.157372</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1976776906.224088</v>
+        <v>2186412410.236895</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09007864614500595</v>
+        <v>0.1060610393789367</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04625437883328981</v>
+        <v>0.04502289723973504</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>988388442.5830816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5380327408.107996</v>
+        <v>5237855043.108186</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1414895438390791</v>
+        <v>0.1155287856390324</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02248726330885687</v>
+        <v>0.01917557558488597</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>100</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2690163871.437489</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2857339038.454697</v>
+        <v>3097224191.591614</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09276561550351368</v>
+        <v>0.09595833895594059</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02635319494187926</v>
+        <v>0.02229847342216084</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>82</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1428669494.254</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2127708423.131456</v>
+        <v>2109250956.8435</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1366655977369257</v>
+        <v>0.1007580419928929</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02709215943585965</v>
+        <v>0.02643373055424224</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1063854134.3292</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4183689631.482337</v>
+        <v>3480451314.127823</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1142745882646711</v>
+        <v>0.1628165893962259</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01811372666785302</v>
+        <v>0.02236415505943964</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2091844901.094455</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2689529148.471143</v>
+        <v>3297350197.858032</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1552226375026253</v>
+        <v>0.1784465830393605</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05184586595190295</v>
+        <v>0.04861576372216554</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>124</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1344764622.271385</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_311.xlsx
+++ b/output/fit_clients/fit_round_311.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1696019176.378002</v>
+        <v>1569495510.168498</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09234979594027097</v>
+        <v>0.07601683771898837</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02912685139936411</v>
+        <v>0.04459813110601511</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2243698477.286204</v>
+        <v>2616656101.456935</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1480378324485655</v>
+        <v>0.1323545789138982</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0402525539814089</v>
+        <v>0.03300005323424592</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4055195018.223122</v>
+        <v>4170109039.609594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1035841964920282</v>
+        <v>0.1603894566265484</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02375994097420641</v>
+        <v>0.03300940914549909</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3299366207.289671</v>
+        <v>3282736906.175984</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08779543814743332</v>
+        <v>0.09321671911889211</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04889420141982047</v>
+        <v>0.0476895336610531</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1928599953.016526</v>
+        <v>2175350000.166273</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09675151907428596</v>
+        <v>0.1351918285053812</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05204950959241577</v>
+        <v>0.04896807646167357</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3053823843.143486</v>
+        <v>2571546885.382311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06514105640018159</v>
+        <v>0.07993338013076805</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03786367430103248</v>
+        <v>0.03017296499186999</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3583222121.907131</v>
+        <v>3622076843.112523</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1591984096882591</v>
+        <v>0.2207769975654251</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03303098010205845</v>
+        <v>0.02234266642958964</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2283549149.855644</v>
+        <v>2287600849.809894</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1639381907271497</v>
+        <v>0.1869535532128049</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03070796914181156</v>
+        <v>0.03321132673550588</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5486593967.790071</v>
+        <v>4858063860.28604</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2081366450718503</v>
+        <v>0.2055739810559863</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04194998063764201</v>
+        <v>0.04064885287329868</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3285848685.13197</v>
+        <v>3808521050.676231</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1363089194881313</v>
+        <v>0.1462507094474057</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03446401991746697</v>
+        <v>0.03660909201656241</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2932415103.213258</v>
+        <v>3125246453.223507</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1496490441203132</v>
+        <v>0.1769011773297</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04697463021073863</v>
+        <v>0.04797694748728686</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4943836608.422732</v>
+        <v>4044339527.912885</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07592634863924462</v>
+        <v>0.09921608613610314</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02698381143176084</v>
+        <v>0.02582495883439901</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2462786213.691256</v>
+        <v>2906082340.356075</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1449468315284468</v>
+        <v>0.1421981891067548</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03594890901630388</v>
+        <v>0.02670422743844773</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1663067944.842374</v>
+        <v>1814073234.905949</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1053757032543675</v>
+        <v>0.07537544125436071</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04748559064033502</v>
+        <v>0.03246446210486536</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2552098630.537957</v>
+        <v>2541013927.734743</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07692408967042005</v>
+        <v>0.1141776222498106</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03199871396107656</v>
+        <v>0.04944956846812758</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4128637051.571692</v>
+        <v>5258497011.571668</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1465776015558691</v>
+        <v>0.1597720309870904</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03648152130959671</v>
+        <v>0.04074445872093775</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2946184341.227653</v>
+        <v>3003375106.794828</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1760586816593583</v>
+        <v>0.1291328292593064</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02333577569495579</v>
+        <v>0.03352203428878968</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>905624798.7884514</v>
+        <v>950027981.8751925</v>
       </c>
       <c r="F19" t="n">
-        <v>0.189787411378</v>
+        <v>0.1772175073326348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01837136217577114</v>
+        <v>0.02178080350298594</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2691581512.842367</v>
+        <v>2063711509.971621</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1461800783540878</v>
+        <v>0.1302036743811351</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02985253096244031</v>
+        <v>0.03105918951060936</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2066910122.606979</v>
+        <v>2265816426.243479</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08377295283944385</v>
+        <v>0.06511913926141145</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03101674714547926</v>
+        <v>0.03928874855082396</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2695385235.003026</v>
+        <v>2486457339.809129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09650647248970712</v>
+        <v>0.1419948469625622</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05202349659427442</v>
+        <v>0.03716517731928775</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1398795504.45135</v>
+        <v>1415028506.335261</v>
       </c>
       <c r="F23" t="n">
-        <v>0.13158381741095</v>
+        <v>0.1441061242679699</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03614606293956764</v>
+        <v>0.04287935330662664</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3098366553.856406</v>
+        <v>4029653721.806452</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1270260113321746</v>
+        <v>0.1409083649724683</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0327534489935572</v>
+        <v>0.03398199834501402</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1001683849.468783</v>
+        <v>1026107760.137573</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1016073646186551</v>
+        <v>0.09854019373473503</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02897412185752</v>
+        <v>0.02880460619770512</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1164488467.172061</v>
+        <v>1021823349.232341</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08947449717862725</v>
+        <v>0.1122927442887046</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03374326006260032</v>
+        <v>0.03136856565833818</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3842698179.682853</v>
+        <v>3274259109.113602</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1051763142923649</v>
+        <v>0.1053600440979328</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01982785228820824</v>
+        <v>0.01688211709819918</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3772480688.305269</v>
+        <v>3099511351.214404</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1401619245433239</v>
+        <v>0.1346134878341173</v>
       </c>
       <c r="G28" t="n">
-        <v>0.031651650171328</v>
+        <v>0.03709921680890055</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5284632728.157559</v>
+        <v>4810023091.566631</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1481460694067152</v>
+        <v>0.1414583078008211</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03280156748409876</v>
+        <v>0.03888318162915962</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2160287049.204883</v>
+        <v>1513016289.669085</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1197203264776539</v>
+        <v>0.1126835535089006</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03511438475496227</v>
+        <v>0.03938906029387425</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>921792855.6208538</v>
+        <v>1390915718.011346</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08221776523012066</v>
+        <v>0.077662632553313</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03825532002094353</v>
+        <v>0.03162709275455967</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1845107679.885104</v>
+        <v>1232923344.108996</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0949588237721444</v>
+        <v>0.08381991629513832</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03195287223069031</v>
+        <v>0.02654366829030601</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2041136037.798455</v>
+        <v>2356313732.632381</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1995105787042609</v>
+        <v>0.2084584270587393</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05212631642473612</v>
+        <v>0.04394877846713393</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1277342769.684051</v>
+        <v>1359081550.619553</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08703573509077106</v>
+        <v>0.1183215863352556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02172119750701347</v>
+        <v>0.01725327076660322</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1190752412.019809</v>
+        <v>1254171436.095652</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1173963497876246</v>
+        <v>0.08027565989662129</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02738449479878322</v>
+        <v>0.04501612882118883</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2808356117.511896</v>
+        <v>2760422383.073138</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1765565425104095</v>
+        <v>0.1736042785001463</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02188906074950622</v>
+        <v>0.01885111630892854</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2423317176.322678</v>
+        <v>2327145060.359194</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1037433685977125</v>
+        <v>0.08143832130948757</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03096834185648397</v>
+        <v>0.02692793877971735</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2169026108.587384</v>
+        <v>2152823731.30495</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09282607878731632</v>
+        <v>0.09322295407052651</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02777065625268714</v>
+        <v>0.02842173477480063</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1400714873.872538</v>
+        <v>1403916229.583429</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1220222657664297</v>
+        <v>0.185713437008676</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02819933041415921</v>
+        <v>0.02855288317556566</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1330720222.930962</v>
+        <v>1209859597.900812</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1434579372529022</v>
+        <v>0.118525330575543</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06006363603217173</v>
+        <v>0.05532107460216421</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1888161723.535302</v>
+        <v>2837233385.061401</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1067229191588617</v>
+        <v>0.1545874936687962</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03858269733296407</v>
+        <v>0.03586118767533898</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3810190159.307796</v>
+        <v>4241977386.779088</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1180140258224613</v>
+        <v>0.1244538924649151</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03091063156561509</v>
+        <v>0.04201938893217778</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2494708111.479671</v>
+        <v>2084270103.895646</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1646785201174022</v>
+        <v>0.1979451439397104</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01839995586223077</v>
+        <v>0.01970508819680339</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1458653816.247545</v>
+        <v>2028522803.480289</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09904484204127306</v>
+        <v>0.06799299680827384</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03093701684617492</v>
+        <v>0.03156604159975514</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2202941107.878849</v>
+        <v>1937255395.574215</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1472249302524414</v>
+        <v>0.1207078098606736</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04139838106282123</v>
+        <v>0.04080525062711264</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3743265478.86542</v>
+        <v>3902183654.665996</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1746510424107295</v>
+        <v>0.1517740088294504</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06096330536604551</v>
+        <v>0.05947349768540772</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4291008037.786636</v>
+        <v>4228550193.535047</v>
       </c>
       <c r="F47" t="n">
-        <v>0.146037901785647</v>
+        <v>0.1578574480469545</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0577274624780621</v>
+        <v>0.04883682864612801</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4007042217.614082</v>
+        <v>4548591079.487316</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07271839557026059</v>
+        <v>0.08119587148203856</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03002173024529195</v>
+        <v>0.03894957976427219</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1408959557.346609</v>
+        <v>1702866878.588817</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1930907260771335</v>
+        <v>0.1810554164513201</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03760058809768353</v>
+        <v>0.03543181886780359</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3355366113.411995</v>
+        <v>4080833568.878783</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1362880586379242</v>
+        <v>0.1154409979598725</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03785771953294349</v>
+        <v>0.0457480553154775</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1044584199.312184</v>
+        <v>1259877597.734166</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1904080207418548</v>
+        <v>0.1272153214667744</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03456334777130591</v>
+        <v>0.05295175875740133</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4612231566.664553</v>
+        <v>4750167088.72572</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1381467469489474</v>
+        <v>0.124413055055764</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03845383056761823</v>
+        <v>0.04780067369348487</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2487967706.576174</v>
+        <v>3789669022.950318</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1326511025127423</v>
+        <v>0.1336757884173544</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02726593132539288</v>
+        <v>0.03042727810584732</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3420751496.020006</v>
+        <v>4528561642.914204</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1092572756372493</v>
+        <v>0.1199280591958281</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04082456741576121</v>
+        <v>0.04018089637843322</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4930181199.685182</v>
+        <v>3572204299.026266</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1772899511523339</v>
+        <v>0.2144744583114521</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02279248127759811</v>
+        <v>0.03244496635868042</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1659365206.651695</v>
+        <v>1611489363.626862</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1305328011152667</v>
+        <v>0.1477583250990934</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05645745808356781</v>
+        <v>0.048768004506866</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2971999976.26588</v>
+        <v>3846256061.368315</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1618473701680309</v>
+        <v>0.1846925610670885</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02450182922170451</v>
+        <v>0.02308615308662606</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1311911603.159658</v>
+        <v>1769389516.38496</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1947012357799695</v>
+        <v>0.1789140679273477</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02597283024320346</v>
+        <v>0.02435862918507962</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4707666128.132052</v>
+        <v>3780555339.19383</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1139087756105747</v>
+        <v>0.1072057799072513</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03796155086650163</v>
+        <v>0.0379633470903389</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3443034190.864105</v>
+        <v>3678001712.116264</v>
       </c>
       <c r="F60" t="n">
-        <v>0.202467549635521</v>
+        <v>0.1866899616627899</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03018248606578918</v>
+        <v>0.02400069706946222</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2214550516.352504</v>
+        <v>2285239363.397546</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1302559577191452</v>
+        <v>0.1162116547441051</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02285264729462275</v>
+        <v>0.02296465625304656</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1369187929.848855</v>
+        <v>1661730040.515071</v>
       </c>
       <c r="F62" t="n">
-        <v>0.133907724425466</v>
+        <v>0.1477505731015894</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04430497829095525</v>
+        <v>0.04789037687851518</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3545700803.331312</v>
+        <v>4029939339.22157</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0846230081757678</v>
+        <v>0.07170348437259255</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03190317815451803</v>
+        <v>0.03122183020529222</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3663788200.562013</v>
+        <v>4266172108.041449</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1350214821221139</v>
+        <v>0.1435831532003712</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0355609791502489</v>
+        <v>0.02263123821763556</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4865100420.732944</v>
+        <v>3872664853.617404</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1190804685206119</v>
+        <v>0.1308483479487194</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02571739164119726</v>
+        <v>0.02848556994575183</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5582195656.91494</v>
+        <v>5672113620.638758</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1382434622955169</v>
+        <v>0.1057860761488555</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04336817701282929</v>
+        <v>0.04442953794097592</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2863829498.825988</v>
+        <v>3110576713.684306</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06222121792938047</v>
+        <v>0.09399204758678378</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03176878136277608</v>
+        <v>0.04119523197900381</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4980183023.268757</v>
+        <v>5922822601.677617</v>
       </c>
       <c r="F68" t="n">
-        <v>0.10251793369264</v>
+        <v>0.1095351409513399</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04321117131754078</v>
+        <v>0.04128901813327891</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1548268523.483542</v>
+        <v>1556069409.328073</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1424429202713666</v>
+        <v>0.1591974002222531</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04631837179627835</v>
+        <v>0.03723224678283235</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3250653902.252615</v>
+        <v>3607055914.18794</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09431298458072786</v>
+        <v>0.06260647422654995</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03820285829143619</v>
+        <v>0.03704774949487609</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4744189890.139658</v>
+        <v>3798531691.111619</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1811503918193874</v>
+        <v>0.1338804128544047</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0250455582046148</v>
+        <v>0.02061918207298554</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1488352606.321486</v>
+        <v>2173216357.121539</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06881281561595885</v>
+        <v>0.06687035674857252</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03333056447307446</v>
+        <v>0.04863185756594406</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3141770801.14562</v>
+        <v>2534695310.028265</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06918856206088651</v>
+        <v>0.08187081893683677</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0501704690606742</v>
+        <v>0.04207815565064321</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2486072431.686124</v>
+        <v>2594599201.974407</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1771009082176718</v>
+        <v>0.1433017801070091</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02834267885094719</v>
+        <v>0.02360610072513732</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2025469505.079574</v>
+        <v>1987505065.455398</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1540256536485276</v>
+        <v>0.1129380935791663</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03042363967212282</v>
+        <v>0.0302268454855242</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5064555456.012768</v>
+        <v>4216507888.015801</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1230198789330681</v>
+        <v>0.09532583700449879</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02558581425230023</v>
+        <v>0.02837960734163695</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2051442095.774808</v>
+        <v>1482165743.303141</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1469419359804172</v>
+        <v>0.1536618278872043</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02846739545228331</v>
+        <v>0.02254320992380369</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2994906521.136371</v>
+        <v>4035422601.780421</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1342130980282825</v>
+        <v>0.1162074904936004</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0519112571271282</v>
+        <v>0.0411243278668191</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1270576280.777959</v>
+        <v>1535671251.395888</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1333597469198844</v>
+        <v>0.1543541300899426</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02846781237495951</v>
+        <v>0.02887589320361131</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5504155730.453261</v>
+        <v>4306952108.604991</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09865762565863352</v>
+        <v>0.1067772016055856</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02598560397624227</v>
+        <v>0.02732432652841843</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4842769849.572392</v>
+        <v>3435807311.767574</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1203968389272404</v>
+        <v>0.1370124080929629</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03160435707112434</v>
+        <v>0.02365272458663827</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3580436497.281289</v>
+        <v>4044324694.385841</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1466204082953456</v>
+        <v>0.2115244373864902</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01878791012462295</v>
+        <v>0.01883888095950944</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2303149315.847316</v>
+        <v>1658824114.622521</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1498595307918489</v>
+        <v>0.1477563795909778</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02762846876373435</v>
+        <v>0.03320177091270204</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2290153609.272204</v>
+        <v>2283847225.782175</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1118866971896368</v>
+        <v>0.1120931828057623</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04302076279558174</v>
+        <v>0.05015841622350811</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2489263923.985696</v>
+        <v>2616558655.558463</v>
       </c>
       <c r="F85" t="n">
-        <v>0.147341852642343</v>
+        <v>0.1548631938201142</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04701271061203906</v>
+        <v>0.05188287088259309</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2068568654.226885</v>
+        <v>2396991504.238126</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1611576259498133</v>
+        <v>0.1068109869921458</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01763710805991863</v>
+        <v>0.0252753423105047</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1107441987.57023</v>
+        <v>1425158129.954888</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1260660000138674</v>
+        <v>0.1503184052102069</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03813640040178064</v>
+        <v>0.02966792569064361</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3284713061.398455</v>
+        <v>2591430776.672637</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1569630018051524</v>
+        <v>0.1569479365881569</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02687448137990714</v>
+        <v>0.03471128587773169</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3427539641.91643</v>
+        <v>2676664474.023611</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1391439564159847</v>
+        <v>0.1583531437098171</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03334480023639384</v>
+        <v>0.04165765236508719</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1662457405.418885</v>
+        <v>2031192911.764822</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09480277633223486</v>
+        <v>0.09488240147082205</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03526706664365485</v>
+        <v>0.0554776728958778</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1503169158.694818</v>
+        <v>1502286240.811371</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1562490041477109</v>
+        <v>0.1191792724909169</v>
       </c>
       <c r="G91" t="n">
-        <v>0.056073063189955</v>
+        <v>0.03916318438921399</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2132375138.027377</v>
+        <v>2576086316.852373</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1036619901965028</v>
+        <v>0.09694657811366832</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03821213665724135</v>
+        <v>0.04273383316642301</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4144675307.962321</v>
+        <v>3295713622.097052</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1413642965609802</v>
+        <v>0.1424230735502907</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04744206651199347</v>
+        <v>0.03964042606876209</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1676281652.083545</v>
+        <v>1713343416.575964</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1093585105489842</v>
+        <v>0.1449095959304366</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03290437314877772</v>
+        <v>0.03105957085970181</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3115135203.972255</v>
+        <v>2799474711.170711</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1257418027616502</v>
+        <v>0.1285227863527315</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04800488380368004</v>
+        <v>0.03648319779383162</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2186412410.236895</v>
+        <v>2216569904.267713</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1060610393789367</v>
+        <v>0.08666790460713189</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04502289723973504</v>
+        <v>0.03520128180647181</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5237855043.108186</v>
+        <v>3294923012.018725</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1155287856390324</v>
+        <v>0.1397415203003769</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01917557558488597</v>
+        <v>0.01868369935960765</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3097224191.591614</v>
+        <v>3350660108.722021</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09595833895594059</v>
+        <v>0.08322652363315004</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02229847342216084</v>
+        <v>0.02950456345985449</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2109250956.8435</v>
+        <v>2309677048.895667</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1007580419928929</v>
+        <v>0.1297349762088904</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02643373055424224</v>
+        <v>0.02278859328697763</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3480451314.127823</v>
+        <v>3953778012.931345</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1628165893962259</v>
+        <v>0.1797629269359909</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02236415505943964</v>
+        <v>0.02438807579259734</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3297350197.858032</v>
+        <v>2525815809.630642</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1784465830393605</v>
+        <v>0.1603633386778322</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04861576372216554</v>
+        <v>0.05841818773799584</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_311.xlsx
+++ b/output/fit_clients/fit_round_311.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1569495510.168498</v>
+        <v>2154516300.715662</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07601683771898837</v>
+        <v>0.08634281145698261</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04459813110601511</v>
+        <v>0.045563571556911</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2616656101.456935</v>
+        <v>2423889729.90867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1323545789138982</v>
+        <v>0.1725577065700513</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03300005323424592</v>
+        <v>0.03378557382188311</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4170109039.609594</v>
+        <v>3714183742.806902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1603894566265484</v>
+        <v>0.1429314429437079</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03300940914549909</v>
+        <v>0.03204093146271025</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>163</v>
+      </c>
+      <c r="J4" t="n">
+        <v>311</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3282736906.175984</v>
+        <v>3224526278.573921</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09321671911889211</v>
+        <v>0.07379025886142535</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0476895336610531</v>
+        <v>0.04479460970070982</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2175350000.166273</v>
+        <v>2485548901.206461</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1351918285053812</v>
+        <v>0.1488231186592761</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04896807646167357</v>
+        <v>0.04057173769486161</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2571546885.382311</v>
+        <v>2371047499.849735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07993338013076805</v>
+        <v>0.07992211620326571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03017296499186999</v>
+        <v>0.04646385030112692</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3622076843.112523</v>
+        <v>2394612701.962044</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2207769975654251</v>
+        <v>0.2181384209622656</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02234266642958964</v>
+        <v>0.02978061592739379</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>309</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2287600849.809894</v>
+        <v>1645165178.596813</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1869535532128049</v>
+        <v>0.1939921325161676</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03321132673550588</v>
+        <v>0.0328549394305192</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4858063860.28604</v>
+        <v>5934632918.071647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2055739810559863</v>
+        <v>0.1559446826737539</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04064885287329868</v>
+        <v>0.05215510025509849</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>273</v>
+      </c>
+      <c r="J10" t="n">
+        <v>311</v>
+      </c>
+      <c r="K10" t="n">
+        <v>79.33320415901836</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3808521050.676231</v>
+        <v>2926978650.373162</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1462507094474057</v>
+        <v>0.1860321712078885</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03660909201656241</v>
+        <v>0.03983055909758291</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>124</v>
+      </c>
+      <c r="J11" t="n">
+        <v>308</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3125246453.223507</v>
+        <v>3277036414.28932</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1769011773297</v>
+        <v>0.1562700719535064</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04797694748728686</v>
+        <v>0.04283860834023299</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4044339527.912885</v>
+        <v>3483573449.537197</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09921608613610314</v>
+        <v>0.06354981035972931</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02582495883439901</v>
+        <v>0.02517787554115734</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>160</v>
+      </c>
+      <c r="J13" t="n">
+        <v>311</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +923,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2906082340.356075</v>
+        <v>2468242650.465762</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1421981891067548</v>
+        <v>0.1675792246111689</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02670422743844773</v>
+        <v>0.02820534297700526</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="n">
+        <v>28.44021830633466</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1814073234.905949</v>
+        <v>1465568658.456703</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07537544125436071</v>
+        <v>0.1080833646440859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03246446210486536</v>
+        <v>0.03584107523187523</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2541013927.734743</v>
+        <v>2199920752.483658</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1141776222498106</v>
+        <v>0.07431111623778687</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04944956846812758</v>
+        <v>0.03759054534172381</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5258497011.571668</v>
+        <v>3331591704.445514</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1597720309870904</v>
+        <v>0.1545505884773631</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04074445872093775</v>
+        <v>0.05184274255017622</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>146</v>
+      </c>
+      <c r="J17" t="n">
+        <v>311</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3003375106.794828</v>
+        <v>3092332326.672034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1291328292593064</v>
+        <v>0.1300562122489112</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03352203428878968</v>
+        <v>0.03448972720167236</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>309</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>950027981.8751925</v>
+        <v>1222430420.609027</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1772175073326348</v>
+        <v>0.1336961687811402</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02178080350298594</v>
+        <v>0.0233022669248991</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2063711509.971621</v>
+        <v>1843710745.365016</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1302036743811351</v>
+        <v>0.1217461713695794</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03105918951060936</v>
+        <v>0.02246787543371999</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2265816426.243479</v>
+        <v>2635353671.633876</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06511913926141145</v>
+        <v>0.08394155801045321</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03928874855082396</v>
+        <v>0.04064612529976547</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2486457339.809129</v>
+        <v>2632870037.015738</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1419948469625622</v>
+        <v>0.1303055586946933</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03716517731928775</v>
+        <v>0.04753792921837088</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>84</v>
+      </c>
+      <c r="J22" t="n">
+        <v>309</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1240,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1415028506.335261</v>
+        <v>1231970448.785655</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1441061242679699</v>
+        <v>0.1728179964013026</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04287935330662664</v>
+        <v>0.03592833275977478</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4029653721.806452</v>
+        <v>2554707380.205845</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1409083649724683</v>
+        <v>0.1292785311154556</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03398199834501402</v>
+        <v>0.03022505736150409</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>92</v>
+      </c>
+      <c r="J24" t="n">
+        <v>309</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1026107760.137573</v>
+        <v>1425462366.5661</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09854019373473503</v>
+        <v>0.1169273031173075</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02880460619770512</v>
+        <v>0.02842973277793218</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1345,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1021823349.232341</v>
+        <v>925580597.1680955</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1122927442887046</v>
+        <v>0.1015392797059174</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03136856565833818</v>
+        <v>0.02595525636853178</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1380,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3274259109.113602</v>
+        <v>3300830832.733639</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1053600440979328</v>
+        <v>0.1086598170611797</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01688211709819918</v>
+        <v>0.02573319397381022</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>129</v>
+      </c>
+      <c r="J27" t="n">
+        <v>309</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1409,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3099511351.214404</v>
+        <v>3202804079.18858</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1346134878341173</v>
+        <v>0.1449622009261587</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03709921680890055</v>
+        <v>0.0394874850101441</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>66</v>
+      </c>
+      <c r="J28" t="n">
+        <v>309</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4810023091.566631</v>
+        <v>4508466152.153442</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1414583078008211</v>
+        <v>0.1045184661769158</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03888318162915962</v>
+        <v>0.03251277806382104</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>290</v>
+      </c>
+      <c r="J29" t="n">
+        <v>311</v>
+      </c>
+      <c r="K29" t="n">
+        <v>80.1885483093683</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1513016289.669085</v>
+        <v>2280842378.506316</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1126835535089006</v>
+        <v>0.1055248601990679</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03938906029387425</v>
+        <v>0.03816659712492636</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1390915718.011346</v>
+        <v>1328453727.73096</v>
       </c>
       <c r="F31" t="n">
-        <v>0.077662632553313</v>
+        <v>0.08680197236041703</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03162709275455967</v>
+        <v>0.05054304356140089</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1232923344.108996</v>
+        <v>1400539325.001755</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08381991629513832</v>
+        <v>0.08766654181534494</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02654366829030601</v>
+        <v>0.02469716679211276</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1592,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2356313732.632381</v>
+        <v>2045954604.618542</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2084584270587393</v>
+        <v>0.1740522064764742</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04394877846713393</v>
+        <v>0.05197070399548125</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1627,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1359081550.619553</v>
+        <v>1462123284.380258</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1183215863352556</v>
+        <v>0.1049155068265199</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01725327076660322</v>
+        <v>0.02600712904399469</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1254171436.095652</v>
+        <v>1353425977.647469</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08027565989662129</v>
+        <v>0.08219688671656912</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04501612882118883</v>
+        <v>0.02968992414517544</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2760422383.073138</v>
+        <v>2128964116.462223</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1736042785001463</v>
+        <v>0.1333119975221609</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01885111630892854</v>
+        <v>0.02503503122608915</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2327145060.359194</v>
+        <v>2096527494.973424</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08143832130948757</v>
+        <v>0.09647098139264471</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02692793877971735</v>
+        <v>0.02746052396569142</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2152823731.30495</v>
+        <v>1805137743.498717</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09322295407052651</v>
+        <v>0.08277212523201159</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02842173477480063</v>
+        <v>0.03563531390730829</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1403916229.583429</v>
+        <v>2153240267.059326</v>
       </c>
       <c r="F39" t="n">
-        <v>0.185713437008676</v>
+        <v>0.1675724780999504</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02855288317556566</v>
+        <v>0.02362146593164303</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1209859597.900812</v>
+        <v>1354472036.365841</v>
       </c>
       <c r="F40" t="n">
-        <v>0.118525330575543</v>
+        <v>0.1219939130555152</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05532107460216421</v>
+        <v>0.05748991842005537</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2837233385.061401</v>
+        <v>1791392990.49628</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1545874936687962</v>
+        <v>0.1463204772907171</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03586118767533898</v>
+        <v>0.04006890535724261</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4241977386.779088</v>
+        <v>3047671260.450032</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1244538924649151</v>
+        <v>0.1149350611016272</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04201938893217778</v>
+        <v>0.0440793615369675</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>129</v>
+      </c>
+      <c r="J42" t="n">
+        <v>310</v>
+      </c>
+      <c r="K42" t="n">
+        <v>42.55122196467801</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2084270103.895646</v>
+        <v>2760875125.804177</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1979451439397104</v>
+        <v>0.1306789787142557</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01970508819680339</v>
+        <v>0.02504677396648368</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2028522803.480289</v>
+        <v>1889531374.757425</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06799299680827384</v>
+        <v>0.06805270506360529</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03156604159975514</v>
+        <v>0.02438948400894326</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2014,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1937255395.574215</v>
+        <v>2136494738.824494</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1207078098606736</v>
+        <v>0.1509967356847527</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04080525062711264</v>
+        <v>0.05463970246246549</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3902183654.665996</v>
+        <v>5013622688.642591</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1517740088294504</v>
+        <v>0.1433003440553679</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05947349768540772</v>
+        <v>0.05217923453404301</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>186</v>
+      </c>
+      <c r="J46" t="n">
+        <v>311</v>
+      </c>
+      <c r="K46" t="n">
+        <v>79.38317438235308</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2086,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4228550193.535047</v>
+        <v>4324969011.095048</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1578574480469545</v>
+        <v>0.1548046531738073</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04883682864612801</v>
+        <v>0.03947896100838225</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>138</v>
+      </c>
+      <c r="J47" t="n">
+        <v>311</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4548591079.487316</v>
+        <v>3327894393.4031</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08119587148203856</v>
+        <v>0.0875259967049254</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03894957976427219</v>
+        <v>0.03928335253477699</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>156</v>
+      </c>
+      <c r="J48" t="n">
+        <v>310</v>
+      </c>
+      <c r="K48" t="n">
+        <v>47.83768766044825</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1702866878.588817</v>
+        <v>1422908407.513666</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1810554164513201</v>
+        <v>0.1672353023256848</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03543181886780359</v>
+        <v>0.02857632238978576</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2193,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4080833568.878783</v>
+        <v>4156816254.89547</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1154409979598725</v>
+        <v>0.1207563704181999</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0457480553154775</v>
+        <v>0.04759417698979388</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>99</v>
+      </c>
+      <c r="J50" t="n">
+        <v>310</v>
+      </c>
+      <c r="K50" t="n">
+        <v>75.13844657518666</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1259877597.734166</v>
+        <v>970593033.9075811</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1272153214667744</v>
+        <v>0.1926872028255598</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05295175875740133</v>
+        <v>0.03340750091458147</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4750167088.72572</v>
+        <v>4163549453.078734</v>
       </c>
       <c r="F52" t="n">
-        <v>0.124413055055764</v>
+        <v>0.1108401481212143</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04780067369348487</v>
+        <v>0.05738765358136096</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>190</v>
+      </c>
+      <c r="J52" t="n">
+        <v>310</v>
+      </c>
+      <c r="K52" t="n">
+        <v>68.53229216519277</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3789669022.950318</v>
+        <v>2655380547.640985</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1336757884173544</v>
+        <v>0.1747655893934035</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03042727810584732</v>
+        <v>0.02890130337320912</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>43</v>
+      </c>
+      <c r="J53" t="n">
+        <v>306</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2337,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4528561642.914204</v>
+        <v>3392990118.507406</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1199280591958281</v>
+        <v>0.1303689647836129</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04018089637843322</v>
+        <v>0.04698285990906045</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>162</v>
+      </c>
+      <c r="J54" t="n">
+        <v>311</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3572204299.026266</v>
+        <v>4440829698.024469</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2144744583114521</v>
+        <v>0.1864398458882535</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03244496635868042</v>
+        <v>0.02662634627649835</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>143</v>
+      </c>
+      <c r="J55" t="n">
+        <v>311</v>
+      </c>
+      <c r="K55" t="n">
+        <v>81.09845167675395</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1611489363.626862</v>
+        <v>1443337254.578684</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1477583250990934</v>
+        <v>0.1586512774299741</v>
       </c>
       <c r="G56" t="n">
-        <v>0.048768004506866</v>
+        <v>0.04172334299473549</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3846256061.368315</v>
+        <v>3285327609.031521</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1846925610670885</v>
+        <v>0.1110704790258091</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02308615308662606</v>
+        <v>0.02269515856151927</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>128</v>
+      </c>
+      <c r="J57" t="n">
+        <v>310</v>
+      </c>
+      <c r="K57" t="n">
+        <v>43.79200684466097</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1769389516.38496</v>
+        <v>1848581348.55549</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1789140679273477</v>
+        <v>0.1262152406590918</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02435862918507962</v>
+        <v>0.02405429222310464</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3780555339.19383</v>
+        <v>3923990472.330007</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1072057799072513</v>
+        <v>0.09196610850266093</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0379633470903389</v>
+        <v>0.03937677667152083</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>150</v>
+      </c>
+      <c r="J59" t="n">
+        <v>311</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2551,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3678001712.116264</v>
+        <v>2294511036.503356</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1866899616627899</v>
+        <v>0.1324646649164933</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02400069706946222</v>
+        <v>0.02944478447777088</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>54</v>
+      </c>
+      <c r="J60" t="n">
+        <v>310</v>
+      </c>
+      <c r="K60" t="n">
+        <v>25.19344742899593</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2285239363.397546</v>
+        <v>3196631908.103901</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1162116547441051</v>
+        <v>0.1462677791009494</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02296465625304656</v>
+        <v>0.02444889746730547</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1661730040.515071</v>
+        <v>1965093472.148913</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1477505731015894</v>
+        <v>0.1268592008745648</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04789037687851518</v>
+        <v>0.03471737201472968</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4029939339.22157</v>
+        <v>4268278737.717812</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07170348437259255</v>
+        <v>0.06652842479028097</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03122183020529222</v>
+        <v>0.04422856217727232</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>151</v>
+      </c>
+      <c r="J63" t="n">
+        <v>311</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4266172108.041449</v>
+        <v>4889885839.846971</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1435831532003712</v>
+        <v>0.1637296556043109</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02263123821763556</v>
+        <v>0.03530649838999772</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>153</v>
+      </c>
+      <c r="J64" t="n">
+        <v>310</v>
+      </c>
+      <c r="K64" t="n">
+        <v>79.03995650842664</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3872664853.617404</v>
+        <v>4613979456.106248</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1308483479487194</v>
+        <v>0.1404373390398933</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02848556994575183</v>
+        <v>0.03230828095671265</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>246</v>
+      </c>
+      <c r="J65" t="n">
+        <v>310</v>
+      </c>
+      <c r="K65" t="n">
+        <v>78.72632096210839</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5672113620.638758</v>
+        <v>5161512916.415124</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1057860761488555</v>
+        <v>0.1481431572655001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04442953794097592</v>
+        <v>0.04599526294667709</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>153</v>
+      </c>
+      <c r="J66" t="n">
+        <v>311</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3110576713.684306</v>
+        <v>2700326845.030671</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09399204758678378</v>
+        <v>0.08694207437382273</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04119523197900381</v>
+        <v>0.03260750947642605</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5922822601.677617</v>
+        <v>4923281881.92319</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1095351409513399</v>
+        <v>0.1174163661868778</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04128901813327891</v>
+        <v>0.03687223724480305</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>167</v>
+      </c>
+      <c r="J68" t="n">
+        <v>310</v>
+      </c>
+      <c r="K68" t="n">
+        <v>78.7748079563942</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1556069409.328073</v>
+        <v>1550235365.232132</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1591974002222531</v>
+        <v>0.1229685350904596</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03723224678283235</v>
+        <v>0.04490671376122187</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3607055914.18794</v>
+        <v>3127379678.561992</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06260647422654995</v>
+        <v>0.08230708279152217</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03704774949487609</v>
+        <v>0.04872531763655057</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3798531691.111619</v>
+        <v>5445084396.696668</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1338804128544047</v>
+        <v>0.1280984156075604</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02061918207298554</v>
+        <v>0.03141479844466508</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>231</v>
+      </c>
+      <c r="J71" t="n">
+        <v>310</v>
+      </c>
+      <c r="K71" t="n">
+        <v>78.71310743631491</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2173216357.121539</v>
+        <v>1841971039.484933</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06687035674857252</v>
+        <v>0.08607257801602462</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04863185756594406</v>
+        <v>0.03421343668518959</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2534695310.028265</v>
+        <v>3409112571.999282</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08187081893683677</v>
+        <v>0.1008602532476954</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04207815565064321</v>
+        <v>0.04096137392487331</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>23</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2594599201.974407</v>
+        <v>3504721348.799902</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1433017801070091</v>
+        <v>0.1294864871475801</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02360610072513732</v>
+        <v>0.02514947176733534</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>311</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1987505065.455398</v>
+        <v>1791988112.539704</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1129380935791663</v>
+        <v>0.1064654619247267</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0302268454855242</v>
+        <v>0.0310033867520603</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4216507888.015801</v>
+        <v>4217430054.259464</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09532583700449879</v>
+        <v>0.09997791426055617</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02837960734163695</v>
+        <v>0.02605657816552194</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>146</v>
+      </c>
+      <c r="J76" t="n">
+        <v>311</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1482165743.303141</v>
+        <v>2123366060.909376</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1536618278872043</v>
+        <v>0.1585508251558941</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02254320992380369</v>
+        <v>0.02456271239308006</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4035422601.780421</v>
+        <v>4787934300.163512</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1162074904936004</v>
+        <v>0.1322188582335573</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0411243278668191</v>
+        <v>0.04047708019268464</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>154</v>
+      </c>
+      <c r="J78" t="n">
+        <v>311</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1535671251.395888</v>
+        <v>1246420915.901021</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1543541300899426</v>
+        <v>0.1066297747502473</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02887589320361131</v>
+        <v>0.02959507996931975</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4306952108.604991</v>
+        <v>4506637119.582704</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1067772016055856</v>
+        <v>0.08701606864540486</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02732432652841843</v>
+        <v>0.03210180966883092</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>152</v>
+      </c>
+      <c r="J80" t="n">
+        <v>310</v>
+      </c>
+      <c r="K80" t="n">
+        <v>59.51234962563964</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3435807311.767574</v>
+        <v>4822621455.931174</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1370124080929629</v>
+        <v>0.09453227288906967</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02365272458663827</v>
+        <v>0.0234655939129323</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>143</v>
+      </c>
+      <c r="J81" t="n">
+        <v>311</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4044324694.385841</v>
+        <v>4511477920.649552</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2115244373864902</v>
+        <v>0.1566965733730912</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01883888095950944</v>
+        <v>0.0235333250389183</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>226</v>
+      </c>
+      <c r="J82" t="n">
+        <v>310</v>
+      </c>
+      <c r="K82" t="n">
+        <v>77.14046847327288</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1658824114.622521</v>
+        <v>1547099759.996277</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1477563795909778</v>
+        <v>0.1144678976750566</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03320177091270204</v>
+        <v>0.02821337404311876</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2283847225.782175</v>
+        <v>2511760737.523376</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1120931828057623</v>
+        <v>0.1018226310960799</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05015841622350811</v>
+        <v>0.03572152440256875</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2616558655.558463</v>
+        <v>3509710530.358812</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1548631938201142</v>
+        <v>0.1737974817409219</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05188287088259309</v>
+        <v>0.03685006081879025</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>311</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2396991504.238126</v>
+        <v>2657274196.333335</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1068109869921458</v>
+        <v>0.160393823751762</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0252753423105047</v>
+        <v>0.01977583645743201</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1425158129.954888</v>
+        <v>1452924096.764627</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1503184052102069</v>
+        <v>0.1173408217135172</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02966792569064361</v>
+        <v>0.04284193952240644</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2591430776.672637</v>
+        <v>2412024462.105831</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1569479365881569</v>
+        <v>0.1347230786074193</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03471128587773169</v>
+        <v>0.03506894794201039</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2676664474.023611</v>
+        <v>2640010045.904354</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1583531437098171</v>
+        <v>0.1346559066187938</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04165765236508719</v>
+        <v>0.02724504169987388</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2031192911.764822</v>
+        <v>1857612207.574916</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09488240147082205</v>
+        <v>0.09654786902098617</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0554776728958778</v>
+        <v>0.05562016530905424</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1502286240.811371</v>
+        <v>2057857350.811885</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1191792724909169</v>
+        <v>0.1240580594817026</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03916318438921399</v>
+        <v>0.04258818494139274</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2576086316.852373</v>
+        <v>2347996260.635859</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09694657811366832</v>
+        <v>0.07421623059072205</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04273383316642301</v>
+        <v>0.0430783271004962</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3295713622.097052</v>
+        <v>3170133931.254061</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1424230735502907</v>
+        <v>0.1103596137464956</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03964042606876209</v>
+        <v>0.03591840399385916</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>139</v>
+      </c>
+      <c r="J93" t="n">
+        <v>310</v>
+      </c>
+      <c r="K93" t="n">
+        <v>40.46249882949905</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1713343416.575964</v>
+        <v>1690223517.465069</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1449095959304366</v>
+        <v>0.1363055168468331</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03105957085970181</v>
+        <v>0.04233519803750503</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2799474711.170711</v>
+        <v>2565580531.807132</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1285227863527315</v>
+        <v>0.1090094626820542</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03648319779383162</v>
+        <v>0.04384743119887041</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2216569904.267713</v>
+        <v>1482323981.952461</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08666790460713189</v>
+        <v>0.1034199187496304</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03520128180647181</v>
+        <v>0.04369428138007782</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3294923012.018725</v>
+        <v>3605656152.313553</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1397415203003769</v>
+        <v>0.1535479810669055</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01868369935960765</v>
+        <v>0.02058212625074805</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>157</v>
+      </c>
+      <c r="J97" t="n">
+        <v>311</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3350660108.722021</v>
+        <v>2934880015.384595</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08322652363315004</v>
+        <v>0.08847894637875806</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02950456345985449</v>
+        <v>0.02293524973676021</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>76</v>
+      </c>
+      <c r="J98" t="n">
+        <v>306</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2309677048.895667</v>
+        <v>2736779727.845127</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1297349762088904</v>
+        <v>0.101006117559829</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02278859328697763</v>
+        <v>0.03481476234460514</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3953778012.931345</v>
+        <v>4471185720.282883</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1797629269359909</v>
+        <v>0.1674904655551504</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02438807579259734</v>
+        <v>0.02405576009310739</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>135</v>
+      </c>
+      <c r="J100" t="n">
+        <v>311</v>
+      </c>
+      <c r="K100" t="n">
+        <v>80.38115461160818</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2525815809.630642</v>
+        <v>2930171874.096213</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1603633386778322</v>
+        <v>0.2080313674907746</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05841818773799584</v>
+        <v>0.03598115218883362</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="n">
+        <v>42.77067489122803</v>
       </c>
     </row>
   </sheetData>
